--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2418.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2418.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.036088191705549</v>
+        <v>1.345840692520142</v>
       </c>
       <c r="B1">
-        <v>2.100292214891616</v>
+        <v>1.452422857284546</v>
       </c>
       <c r="C1">
-        <v>9.044317014358514</v>
+        <v>3.932491302490234</v>
       </c>
       <c r="D1">
-        <v>2.037605323453296</v>
+        <v>3.263296127319336</v>
       </c>
       <c r="E1">
-        <v>0.9984912815049504</v>
+        <v>1.073126673698425</v>
       </c>
     </row>
   </sheetData>
